--- a/2024/Dahami Madushika/data set.xlsx
+++ b/2024/Dahami Madushika/data set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPSS\2024\Dahami Madushika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88598314-4F4C-428E-87AD-E800B9A50893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E220AC97-A95B-4B94-9E3C-98CD16AF0087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>1. ඔබ ජීවත් වන ප්‍රදේශයේ ස්වභාවය (බණ්ඩාරවෙල නගරය ආශ්‍රිතව)</t>
   </si>
@@ -57,12 +57,15 @@
   <si>
     <t xml:space="preserve">14. ඔබේ පිළිතුර 1 නම් ඔබ ඌව ප්‍රජා ගුවන් විදුලිය  සතු අන්තර්ජාල යෙදවුම  පිළිබඳ දැනුවත් වූයේ  කෙසේද ? </t>
   </si>
+  <si>
+    <t>7. ඔබ ගුවන් විදුලියට සවන් දෙන්නේ කුමන තාක්ෂණික උපාංගයක් හරහාද ? (ආදාළ සියල්ල තෝරන්න)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -75,6 +78,13 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -84,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,13 +102,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,19 +345,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:M251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G38" sqref="G38:G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="18.85546875" customWidth="1"/>
+    <col min="1" max="19" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -348,26 +376,29 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -386,17 +417,17 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -404,8 +435,11 @@
       <c r="L2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -424,7 +458,7 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
       <c r="H3" s="1">
@@ -442,8 +476,11 @@
       <c r="L3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -462,7 +499,7 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="1">
@@ -472,16 +509,19 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -500,26 +540,29 @@
       <c r="F5" s="1">
         <v>3</v>
       </c>
-      <c r="G5" s="1">
-        <v>1</v>
+      <c r="G5" s="2">
+        <v>4</v>
       </c>
       <c r="H5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -538,8 +581,8 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
-        <v>1</v>
+      <c r="G6" s="2">
+        <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>1</v>
@@ -556,8 +599,11 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -576,7 +622,7 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="1">
@@ -589,13 +635,16 @@
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -614,11 +663,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>2</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
@@ -627,13 +676,16 @@
         <v>3</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -652,7 +704,7 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="1">
@@ -670,8 +722,11 @@
       <c r="L9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -690,7 +745,7 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
       <c r="H10" s="1">
@@ -700,16 +755,19 @@
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -728,8 +786,8 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
+      <c r="G11" s="2">
+        <v>2</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
@@ -744,10 +802,13 @@
         <v>1</v>
       </c>
       <c r="L11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -766,14 +827,14 @@
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>3</v>
+      <c r="G12" s="2">
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -782,10 +843,13 @@
         <v>1</v>
       </c>
       <c r="L12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -804,8 +868,8 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
+      <c r="G13" s="2">
+        <v>3</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -814,16 +878,19 @@
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -842,26 +909,29 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
       <c r="J14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -880,26 +950,29 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>1</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
       <c r="I15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -918,26 +991,29 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="1">
-        <v>3</v>
+      <c r="G16" s="2">
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -956,26 +1032,29 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="2">
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -994,11 +1073,11 @@
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="G18" s="1">
-        <v>2</v>
+      <c r="G18" s="2">
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1007,13 +1086,16 @@
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -1032,8 +1114,8 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="1">
-        <v>3</v>
+      <c r="G19" s="2">
+        <v>1</v>
       </c>
       <c r="H19" s="1">
         <v>3</v>
@@ -1042,16 +1124,19 @@
         <v>3</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
       <c r="L19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1070,11 +1155,11 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="G20" s="1">
-        <v>1</v>
+      <c r="G20" s="2">
+        <v>3</v>
       </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1">
         <v>3</v>
@@ -1083,13 +1168,16 @@
         <v>3</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1108,8 +1196,8 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="1">
-        <v>3</v>
+      <c r="G21" s="2">
+        <v>2</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
@@ -1121,13 +1209,16 @@
         <v>3</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -1146,26 +1237,29 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="1">
         <v>3</v>
       </c>
       <c r="J22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -1184,8 +1278,8 @@
       <c r="F23" s="1">
         <v>3</v>
       </c>
-      <c r="G23" s="1">
-        <v>1</v>
+      <c r="G23" s="2">
+        <v>4</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -1202,8 +1296,11 @@
       <c r="L23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -1222,26 +1319,29 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="G24" s="1">
-        <v>1</v>
+      <c r="G24" s="2">
+        <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1260,8 +1360,8 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1">
-        <v>3</v>
+      <c r="G25" s="2">
+        <v>1</v>
       </c>
       <c r="H25" s="1">
         <v>3</v>
@@ -1270,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -1278,8 +1378,11 @@
       <c r="L25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -1298,26 +1401,29 @@
       <c r="F26" s="1">
         <v>3</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>3</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>3</v>
       </c>
       <c r="K26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -1336,26 +1442,29 @@
       <c r="F27" s="1">
         <v>3</v>
       </c>
-      <c r="G27" s="1">
-        <v>3</v>
+      <c r="G27" s="2">
+        <v>2</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27" s="1">
         <v>3</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -1374,26 +1483,29 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="2">
         <v>3</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1412,26 +1524,29 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="1">
-        <v>1</v>
+      <c r="G29" s="2">
+        <v>2</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" s="1">
         <v>3</v>
       </c>
       <c r="K29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -1450,26 +1565,29 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="2">
         <v>3</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1488,7 +1606,7 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="2">
         <v>1</v>
       </c>
       <c r="H31" s="1">
@@ -1501,13 +1619,16 @@
         <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1526,26 +1647,29 @@
       <c r="F32" s="1">
         <v>3</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="2">
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
       </c>
       <c r="J32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -1564,11 +1688,11 @@
       <c r="F33" s="1">
         <v>3</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
+      <c r="G33" s="2">
+        <v>3</v>
       </c>
       <c r="H33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>3</v>
@@ -1577,13 +1701,16 @@
         <v>3</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -1602,11 +1729,11 @@
       <c r="F34" s="1">
         <v>3</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="2">
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
         <v>3</v>
@@ -1615,13 +1742,16 @@
         <v>3</v>
       </c>
       <c r="K34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1640,26 +1770,29 @@
       <c r="F35" s="1">
         <v>1</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="2">
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K35" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1678,26 +1811,29 @@
       <c r="F36" s="1">
         <v>1</v>
       </c>
-      <c r="G36" s="1">
-        <v>3</v>
+      <c r="G36" s="2">
+        <v>1</v>
       </c>
       <c r="H36" s="1">
         <v>3</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -1716,26 +1852,29 @@
       <c r="F37" s="1">
         <v>3</v>
       </c>
-      <c r="G37" s="1">
-        <v>3</v>
+      <c r="G37" s="2">
+        <v>1</v>
       </c>
       <c r="H37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" s="1">
         <v>2</v>
       </c>
       <c r="J37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1754,14 +1893,14 @@
       <c r="F38" s="1">
         <v>1</v>
       </c>
-      <c r="G38" s="1">
-        <v>3</v>
+      <c r="G38" s="2">
+        <v>1</v>
       </c>
       <c r="H38" s="1">
         <v>3</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" s="1">
         <v>1</v>
@@ -1772,8 +1911,11 @@
       <c r="L38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1792,8 +1934,8 @@
       <c r="F39" s="1">
         <v>1</v>
       </c>
-      <c r="G39" s="1">
-        <v>3</v>
+      <c r="G39" s="2">
+        <v>2</v>
       </c>
       <c r="H39" s="1">
         <v>3</v>
@@ -1802,16 +1944,19 @@
         <v>3</v>
       </c>
       <c r="J39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K39" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1830,7 +1975,7 @@
       <c r="F40" s="1">
         <v>1</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="2">
         <v>1</v>
       </c>
       <c r="H40" s="1">
@@ -1840,16 +1985,19 @@
         <v>1</v>
       </c>
       <c r="J40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -1868,11 +2016,11 @@
       <c r="F41" s="1">
         <v>1</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G41" s="2">
         <v>1</v>
       </c>
       <c r="H41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
@@ -1881,13 +2029,16 @@
         <v>3</v>
       </c>
       <c r="K41" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -1906,7 +2057,7 @@
       <c r="F42" s="1">
         <v>1</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>1</v>
       </c>
       <c r="H42" s="1">
@@ -1922,10 +2073,13 @@
         <v>1</v>
       </c>
       <c r="L42" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -1944,8 +2098,8 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-      <c r="G43" s="1">
-        <v>3</v>
+      <c r="G43" s="2">
+        <v>1</v>
       </c>
       <c r="H43" s="1">
         <v>3</v>
@@ -1957,13 +2111,16 @@
         <v>3</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1982,7 +2139,7 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-      <c r="G44" s="1">
+      <c r="G44" s="2">
         <v>1</v>
       </c>
       <c r="H44" s="1">
@@ -2000,8 +2157,11 @@
       <c r="L44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2020,7 +2180,7 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="G45" s="1">
+      <c r="G45" s="2">
         <v>1</v>
       </c>
       <c r="H45" s="1">
@@ -2030,16 +2190,19 @@
         <v>1</v>
       </c>
       <c r="J45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -2058,7 +2221,7 @@
       <c r="F46" s="1">
         <v>1</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>1</v>
       </c>
       <c r="H46" s="1">
@@ -2068,16 +2231,19 @@
         <v>1</v>
       </c>
       <c r="J46" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -2096,7 +2262,7 @@
       <c r="F47" s="1">
         <v>1</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>1</v>
       </c>
       <c r="H47" s="1">
@@ -2106,16 +2272,19 @@
         <v>1</v>
       </c>
       <c r="J47" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -2134,7 +2303,7 @@
       <c r="F48" s="1">
         <v>1</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>1</v>
       </c>
       <c r="H48" s="1">
@@ -2152,8 +2321,11 @@
       <c r="L48" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -2172,7 +2344,7 @@
       <c r="F49" s="1">
         <v>1</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>1</v>
       </c>
       <c r="H49" s="1">
@@ -2190,8 +2362,11 @@
       <c r="L49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -2210,7 +2385,7 @@
       <c r="F50" s="1">
         <v>1</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>1</v>
       </c>
       <c r="H50" s="1">
@@ -2226,10 +2401,13 @@
         <v>1</v>
       </c>
       <c r="L50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -2248,8 +2426,8 @@
       <c r="F51" s="1">
         <v>3</v>
       </c>
-      <c r="G51" s="1">
-        <v>3</v>
+      <c r="G51" s="2">
+        <v>1</v>
       </c>
       <c r="H51" s="1">
         <v>3</v>
@@ -2261,13 +2439,16 @@
         <v>3</v>
       </c>
       <c r="K51" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -2286,7 +2467,7 @@
       <c r="F52" s="1">
         <v>1</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>1</v>
       </c>
       <c r="H52" s="1">
@@ -2304,8 +2485,11 @@
       <c r="L52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -2324,7 +2508,7 @@
       <c r="F53" s="1">
         <v>1</v>
       </c>
-      <c r="G53" s="1">
+      <c r="G53" s="2">
         <v>1</v>
       </c>
       <c r="H53" s="1">
@@ -2342,8 +2526,11 @@
       <c r="L53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -2362,11 +2549,11 @@
       <c r="F54" s="1">
         <v>1</v>
       </c>
-      <c r="G54" s="1">
-        <v>3</v>
+      <c r="G54" s="2">
+        <v>1</v>
       </c>
       <c r="H54" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
@@ -2380,8 +2567,11 @@
       <c r="L54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -2400,11 +2590,11 @@
       <c r="F55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="1">
-        <v>3</v>
+      <c r="G55" s="2">
+        <v>1</v>
       </c>
       <c r="H55" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -2418,8 +2608,11 @@
       <c r="L55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -2438,8 +2631,8 @@
       <c r="F56" s="1">
         <v>1</v>
       </c>
-      <c r="G56" s="1">
-        <v>1</v>
+      <c r="G56" s="2">
+        <v>2</v>
       </c>
       <c r="H56" s="1">
         <v>1</v>
@@ -2448,16 +2641,19 @@
         <v>1</v>
       </c>
       <c r="J56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -2476,26 +2672,29 @@
       <c r="F57" s="1">
         <v>1</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="2">
         <v>1</v>
       </c>
       <c r="H57" s="1">
         <v>1</v>
       </c>
       <c r="I57" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" s="1">
         <v>3</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -2514,26 +2713,29 @@
       <c r="F58" s="1">
         <v>3</v>
       </c>
-      <c r="G58" s="1">
-        <v>1</v>
+      <c r="G58" s="2">
+        <v>3</v>
       </c>
       <c r="H58" s="1">
         <v>1</v>
       </c>
       <c r="I58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" s="1">
         <v>3</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -2552,8 +2754,8 @@
       <c r="F59" s="1">
         <v>3</v>
       </c>
-      <c r="G59" s="1">
-        <v>1</v>
+      <c r="G59" s="2">
+        <v>2</v>
       </c>
       <c r="H59" s="1">
         <v>1</v>
@@ -2562,16 +2764,19 @@
         <v>1</v>
       </c>
       <c r="J59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -2590,8 +2795,8 @@
       <c r="F60" s="1">
         <v>1</v>
       </c>
-      <c r="G60" s="1">
-        <v>1</v>
+      <c r="G60" s="2">
+        <v>2</v>
       </c>
       <c r="H60" s="1">
         <v>1</v>
@@ -2600,16 +2805,19 @@
         <v>1</v>
       </c>
       <c r="J60" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -2628,26 +2836,29 @@
       <c r="F61" s="1">
         <v>1</v>
       </c>
-      <c r="G61" s="1">
-        <v>3</v>
+      <c r="G61" s="2">
+        <v>2</v>
       </c>
       <c r="H61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
       </c>
       <c r="J61" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -2666,8 +2877,8 @@
       <c r="F62" s="1">
         <v>3</v>
       </c>
-      <c r="G62" s="1">
-        <v>1</v>
+      <c r="G62" s="2">
+        <v>2</v>
       </c>
       <c r="H62" s="1">
         <v>1</v>
@@ -2676,16 +2887,19 @@
         <v>1</v>
       </c>
       <c r="J62" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -2704,7 +2918,7 @@
       <c r="F63" s="1">
         <v>1</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="2">
         <v>1</v>
       </c>
       <c r="H63" s="1">
@@ -2714,16 +2928,19 @@
         <v>1</v>
       </c>
       <c r="J63" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -2742,7 +2959,7 @@
       <c r="F64" s="1">
         <v>1</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="2">
         <v>1</v>
       </c>
       <c r="H64" s="1">
@@ -2752,16 +2969,19 @@
         <v>1</v>
       </c>
       <c r="J64" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -2780,7 +3000,7 @@
       <c r="F65" s="1">
         <v>1</v>
       </c>
-      <c r="G65" s="1">
+      <c r="G65" s="2">
         <v>1</v>
       </c>
       <c r="H65" s="1">
@@ -2790,16 +3010,19 @@
         <v>1</v>
       </c>
       <c r="J65" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -2818,7 +3041,7 @@
       <c r="F66" s="1">
         <v>1</v>
       </c>
-      <c r="G66" s="1">
+      <c r="G66" s="2">
         <v>1</v>
       </c>
       <c r="H66" s="1">
@@ -2836,8 +3059,11 @@
       <c r="L66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -2856,7 +3082,7 @@
       <c r="F67" s="1">
         <v>1</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="2">
         <v>1</v>
       </c>
       <c r="H67" s="1">
@@ -2866,16 +3092,19 @@
         <v>1</v>
       </c>
       <c r="J67" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -2894,8 +3123,8 @@
       <c r="F68" s="1">
         <v>1</v>
       </c>
-      <c r="G68" s="1">
-        <v>1</v>
+      <c r="G68" s="2">
+        <v>3</v>
       </c>
       <c r="H68" s="1">
         <v>1</v>
@@ -2912,8 +3141,11 @@
       <c r="L68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -2932,8 +3164,8 @@
       <c r="F69" s="1">
         <v>1</v>
       </c>
-      <c r="G69" s="1">
-        <v>1</v>
+      <c r="G69" s="2">
+        <v>2</v>
       </c>
       <c r="H69" s="1">
         <v>1</v>
@@ -2942,16 +3174,19 @@
         <v>1</v>
       </c>
       <c r="J69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -2970,7 +3205,7 @@
       <c r="F70" s="1">
         <v>1</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="2">
         <v>1</v>
       </c>
       <c r="H70" s="1">
@@ -2988,8 +3223,11 @@
       <c r="L70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -3008,26 +3246,29 @@
       <c r="F71" s="1">
         <v>1</v>
       </c>
-      <c r="G71" s="1">
-        <v>3</v>
+      <c r="G71" s="2">
+        <v>1</v>
       </c>
       <c r="H71" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
       </c>
       <c r="J71" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -3046,8 +3287,8 @@
       <c r="F72" s="1">
         <v>1</v>
       </c>
-      <c r="G72" s="1">
-        <v>1</v>
+      <c r="G72" s="2">
+        <v>2</v>
       </c>
       <c r="H72" s="1">
         <v>1</v>
@@ -3056,16 +3297,19 @@
         <v>1</v>
       </c>
       <c r="J72" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -3084,7 +3328,7 @@
       <c r="F73" s="1">
         <v>1</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G73" s="2">
         <v>1</v>
       </c>
       <c r="H73" s="1">
@@ -3102,8 +3346,11 @@
       <c r="L73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -3122,7 +3369,7 @@
       <c r="F74" s="1">
         <v>1</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="2">
         <v>1</v>
       </c>
       <c r="H74" s="1">
@@ -3132,16 +3379,19 @@
         <v>1</v>
       </c>
       <c r="J74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -3160,8 +3410,8 @@
       <c r="F75" s="1">
         <v>3</v>
       </c>
-      <c r="G75" s="1">
-        <v>3</v>
+      <c r="G75" s="2">
+        <v>2</v>
       </c>
       <c r="H75" s="1">
         <v>3</v>
@@ -3170,16 +3420,19 @@
         <v>3</v>
       </c>
       <c r="J75" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K75" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L75" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -3198,8 +3451,8 @@
       <c r="F76" s="1">
         <v>1</v>
       </c>
-      <c r="G76" s="1">
-        <v>3</v>
+      <c r="G76" s="2">
+        <v>1</v>
       </c>
       <c r="H76" s="1">
         <v>3</v>
@@ -3208,16 +3461,19 @@
         <v>3</v>
       </c>
       <c r="J76" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K76" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L76" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -3236,11 +3492,11 @@
       <c r="F77" s="1">
         <v>1</v>
       </c>
-      <c r="G77" s="1">
-        <v>3</v>
+      <c r="G77" s="2">
+        <v>1</v>
       </c>
       <c r="H77" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
@@ -3254,8 +3510,11 @@
       <c r="L77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -3274,8 +3533,8 @@
       <c r="F78" s="1">
         <v>1</v>
       </c>
-      <c r="G78" s="1">
-        <v>1</v>
+      <c r="G78" s="2">
+        <v>2</v>
       </c>
       <c r="H78" s="1">
         <v>1</v>
@@ -3292,8 +3551,11 @@
       <c r="L78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -3312,8 +3574,8 @@
       <c r="F79" s="1">
         <v>1</v>
       </c>
-      <c r="G79" s="1">
-        <v>1</v>
+      <c r="G79" s="2">
+        <v>2</v>
       </c>
       <c r="H79" s="1">
         <v>1</v>
@@ -3330,8 +3592,11 @@
       <c r="L79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -3350,8 +3615,8 @@
       <c r="F80" s="1">
         <v>1</v>
       </c>
-      <c r="G80" s="1">
-        <v>1</v>
+      <c r="G80" s="2">
+        <v>2</v>
       </c>
       <c r="H80" s="1">
         <v>1</v>
@@ -3366,10 +3631,13 @@
         <v>1</v>
       </c>
       <c r="L80" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -3388,8 +3656,8 @@
       <c r="F81" s="1">
         <v>1</v>
       </c>
-      <c r="G81" s="1">
-        <v>1</v>
+      <c r="G81" s="2">
+        <v>2</v>
       </c>
       <c r="H81" s="1">
         <v>1</v>
@@ -3398,16 +3666,19 @@
         <v>1</v>
       </c>
       <c r="J81" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K81" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -3426,7 +3697,7 @@
       <c r="F82" s="1">
         <v>1</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G82" s="2">
         <v>1</v>
       </c>
       <c r="H82" s="1">
@@ -3442,10 +3713,13 @@
         <v>1</v>
       </c>
       <c r="L82" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2</v>
       </c>
@@ -3464,7 +3738,7 @@
       <c r="F83" s="1">
         <v>1</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="2">
         <v>1</v>
       </c>
       <c r="H83" s="1">
@@ -3474,16 +3748,19 @@
         <v>1</v>
       </c>
       <c r="J83" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L83" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -3502,8 +3779,8 @@
       <c r="F84" s="1">
         <v>1</v>
       </c>
-      <c r="G84" s="1">
-        <v>1</v>
+      <c r="G84" s="2">
+        <v>2</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
@@ -3520,8 +3797,11 @@
       <c r="L84" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -3540,7 +3820,7 @@
       <c r="F85" s="1">
         <v>1</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="2">
         <v>1</v>
       </c>
       <c r="H85" s="1">
@@ -3558,8 +3838,11 @@
       <c r="L85" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -3578,17 +3861,17 @@
       <c r="F86" s="1">
         <v>1</v>
       </c>
-      <c r="G86" s="1">
+      <c r="G86" s="2">
         <v>1</v>
       </c>
       <c r="H86" s="1">
         <v>1</v>
       </c>
       <c r="I86" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" s="1">
         <v>1</v>
@@ -3596,8 +3879,11 @@
       <c r="L86" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -3616,11 +3902,11 @@
       <c r="F87" s="1">
         <v>3</v>
       </c>
-      <c r="G87" s="1">
-        <v>3</v>
+      <c r="G87" s="2">
+        <v>2</v>
       </c>
       <c r="H87" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I87" s="1">
         <v>1</v>
@@ -3634,8 +3920,11 @@
       <c r="L87" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>1</v>
       </c>
@@ -3654,8 +3943,8 @@
       <c r="F88" s="1">
         <v>3</v>
       </c>
-      <c r="G88" s="1">
-        <v>1</v>
+      <c r="G88" s="2">
+        <v>2</v>
       </c>
       <c r="H88" s="1">
         <v>1</v>
@@ -3670,10 +3959,13 @@
         <v>1</v>
       </c>
       <c r="L88" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -3692,26 +3984,29 @@
       <c r="F89" s="1">
         <v>1</v>
       </c>
-      <c r="G89" s="1">
+      <c r="G89" s="2">
         <v>1</v>
       </c>
       <c r="H89" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I89" s="1">
         <v>3</v>
       </c>
       <c r="J89" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K89" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L89" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>1</v>
       </c>
@@ -3730,8 +4025,8 @@
       <c r="F90" s="1">
         <v>2</v>
       </c>
-      <c r="G90" s="1">
-        <v>2</v>
+      <c r="G90" s="2">
+        <v>5</v>
       </c>
       <c r="H90" s="1">
         <v>2</v>
@@ -3740,16 +4035,19 @@
         <v>2</v>
       </c>
       <c r="J90" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K90" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L90" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>1</v>
       </c>
@@ -3768,11 +4066,11 @@
       <c r="F91" s="1">
         <v>3</v>
       </c>
-      <c r="G91" s="1">
-        <v>3</v>
+      <c r="G91" s="2">
+        <v>5</v>
       </c>
       <c r="H91" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91" s="1">
         <v>1</v>
@@ -3786,8 +4084,11 @@
       <c r="L91" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -3806,26 +4107,29 @@
       <c r="F92" s="1">
         <v>1</v>
       </c>
-      <c r="G92" s="1">
-        <v>2</v>
+      <c r="G92" s="2">
+        <v>1</v>
       </c>
       <c r="H92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J92" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K92" s="1">
         <v>1</v>
       </c>
       <c r="L92" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>1</v>
       </c>
@@ -3844,11 +4148,11 @@
       <c r="F93" s="1">
         <v>1</v>
       </c>
-      <c r="G93" s="1">
-        <v>3</v>
+      <c r="G93" s="2">
+        <v>1</v>
       </c>
       <c r="H93" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" s="1">
         <v>1</v>
@@ -3860,10 +4164,13 @@
         <v>1</v>
       </c>
       <c r="L93" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>1</v>
       </c>
@@ -3882,14 +4189,14 @@
       <c r="F94" s="1">
         <v>1</v>
       </c>
-      <c r="G94" s="1">
+      <c r="G94" s="2">
         <v>1</v>
       </c>
       <c r="H94" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J94" s="1">
         <v>1</v>
@@ -3900,8 +4207,11 @@
       <c r="L94" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>1</v>
       </c>
@@ -3920,26 +4230,29 @@
       <c r="F95" s="1">
         <v>1</v>
       </c>
-      <c r="G95" s="1">
-        <v>3</v>
+      <c r="G95" s="2">
+        <v>1</v>
       </c>
       <c r="H95" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I95" s="1">
         <v>1</v>
       </c>
       <c r="J95" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K95" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L95" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>1</v>
       </c>
@@ -3958,26 +4271,29 @@
       <c r="F96" s="1">
         <v>1</v>
       </c>
-      <c r="G96" s="1">
+      <c r="G96" s="2">
         <v>1</v>
       </c>
       <c r="H96" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J96" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K96" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L96" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>1</v>
       </c>
@@ -3996,7 +4312,7 @@
       <c r="F97" s="1">
         <v>1</v>
       </c>
-      <c r="G97" s="1">
+      <c r="G97" s="2">
         <v>1</v>
       </c>
       <c r="H97" s="1">
@@ -4009,13 +4325,16 @@
         <v>1</v>
       </c>
       <c r="K97" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>3</v>
       </c>
@@ -4034,8 +4353,8 @@
       <c r="F98" s="1">
         <v>3</v>
       </c>
-      <c r="G98" s="1">
-        <v>3</v>
+      <c r="G98" s="2">
+        <v>2</v>
       </c>
       <c r="H98" s="1">
         <v>3</v>
@@ -4044,16 +4363,19 @@
         <v>3</v>
       </c>
       <c r="J98" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K98" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L98" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -4072,7 +4394,7 @@
       <c r="F99" s="1">
         <v>3</v>
       </c>
-      <c r="G99" s="1">
+      <c r="G99" s="2">
         <v>3</v>
       </c>
       <c r="H99" s="1">
@@ -4082,16 +4404,19 @@
         <v>3</v>
       </c>
       <c r="J99" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K99" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L99" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -4110,8 +4435,8 @@
       <c r="F100" s="1">
         <v>2</v>
       </c>
-      <c r="G100" s="1">
-        <v>2</v>
+      <c r="G100" s="2">
+        <v>5</v>
       </c>
       <c r="H100" s="1">
         <v>2</v>
@@ -4120,16 +4445,19 @@
         <v>2</v>
       </c>
       <c r="J100" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K100" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="M100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>3</v>
       </c>
@@ -4148,26 +4476,29 @@
       <c r="F101" s="1">
         <v>3</v>
       </c>
-      <c r="G101" s="1">
-        <v>1</v>
+      <c r="G101" s="2">
+        <v>2</v>
       </c>
       <c r="H101" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101" s="1">
         <v>3</v>
       </c>
       <c r="J101" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K101" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L101" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -4186,8 +4517,8 @@
       <c r="F102" s="1">
         <v>3</v>
       </c>
-      <c r="G102" s="1">
-        <v>1</v>
+      <c r="G102" s="2">
+        <v>2</v>
       </c>
       <c r="H102" s="1">
         <v>1</v>
@@ -4204,8 +4535,11 @@
       <c r="L102" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -4224,8 +4558,8 @@
       <c r="F103" s="1">
         <v>3</v>
       </c>
-      <c r="G103" s="1">
-        <v>3</v>
+      <c r="G103" s="2">
+        <v>2</v>
       </c>
       <c r="H103" s="1">
         <v>3</v>
@@ -4234,16 +4568,19 @@
         <v>3</v>
       </c>
       <c r="J103" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K103" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L103" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>3</v>
       </c>
@@ -4262,26 +4599,29 @@
       <c r="F104" s="1">
         <v>3</v>
       </c>
-      <c r="G104" s="1">
-        <v>1</v>
+      <c r="G104" s="2">
+        <v>2</v>
       </c>
       <c r="H104" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104" s="1">
         <v>3</v>
       </c>
       <c r="J104" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K104" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L104" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -4300,26 +4640,29 @@
       <c r="F105" s="1">
         <v>3</v>
       </c>
-      <c r="G105" s="1">
-        <v>1</v>
+      <c r="G105" s="2">
+        <v>2</v>
       </c>
       <c r="H105" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105" s="1">
         <v>3</v>
       </c>
       <c r="J105" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K105" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L105" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>3</v>
       </c>
@@ -4338,26 +4681,29 @@
       <c r="F106" s="1">
         <v>3</v>
       </c>
-      <c r="G106" s="1">
+      <c r="G106" s="2">
         <v>1</v>
       </c>
       <c r="H106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I106" s="1">
         <v>3</v>
       </c>
       <c r="J106" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K106" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L106" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -4376,8 +4722,8 @@
       <c r="F107" s="1">
         <v>3</v>
       </c>
-      <c r="G107" s="1">
-        <v>3</v>
+      <c r="G107" s="2">
+        <v>2</v>
       </c>
       <c r="H107" s="1">
         <v>3</v>
@@ -4386,16 +4732,19 @@
         <v>3</v>
       </c>
       <c r="J107" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K107" s="1">
         <v>1</v>
       </c>
       <c r="L107" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>3</v>
       </c>
@@ -4414,8 +4763,8 @@
       <c r="F108" s="1">
         <v>1</v>
       </c>
-      <c r="G108" s="1">
-        <v>1</v>
+      <c r="G108" s="2">
+        <v>2</v>
       </c>
       <c r="H108" s="1">
         <v>1</v>
@@ -4432,8 +4781,11 @@
       <c r="L108" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>3</v>
       </c>
@@ -4452,8 +4804,8 @@
       <c r="F109" s="1">
         <v>1</v>
       </c>
-      <c r="G109" s="1">
-        <v>1</v>
+      <c r="G109" s="2">
+        <v>2</v>
       </c>
       <c r="H109" s="1">
         <v>1</v>
@@ -4470,8 +4822,11 @@
       <c r="L109" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>3</v>
       </c>
@@ -4490,8 +4845,8 @@
       <c r="F110" s="1">
         <v>1</v>
       </c>
-      <c r="G110" s="1">
-        <v>1</v>
+      <c r="G110" s="2">
+        <v>2</v>
       </c>
       <c r="H110" s="1">
         <v>1</v>
@@ -4506,10 +4861,13 @@
         <v>1</v>
       </c>
       <c r="L110" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>3</v>
       </c>
@@ -4528,8 +4886,8 @@
       <c r="F111" s="1">
         <v>3</v>
       </c>
-      <c r="G111" s="1">
-        <v>1</v>
+      <c r="G111" s="2">
+        <v>2</v>
       </c>
       <c r="H111" s="1">
         <v>1</v>
@@ -4546,8 +4904,11 @@
       <c r="L111" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>3</v>
       </c>
@@ -4566,8 +4927,8 @@
       <c r="F112" s="1">
         <v>1</v>
       </c>
-      <c r="G112" s="1">
-        <v>1</v>
+      <c r="G112" s="2">
+        <v>2</v>
       </c>
       <c r="H112" s="1">
         <v>1</v>
@@ -4584,8 +4945,11 @@
       <c r="L112" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>3</v>
       </c>
@@ -4604,8 +4968,8 @@
       <c r="F113" s="1">
         <v>3</v>
       </c>
-      <c r="G113" s="1">
-        <v>1</v>
+      <c r="G113" s="2">
+        <v>2</v>
       </c>
       <c r="H113" s="1">
         <v>1</v>
@@ -4620,10 +4984,13 @@
         <v>1</v>
       </c>
       <c r="L113" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M113" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>3</v>
       </c>
@@ -4642,8 +5009,8 @@
       <c r="F114" s="1">
         <v>1</v>
       </c>
-      <c r="G114" s="1">
-        <v>1</v>
+      <c r="G114" s="2">
+        <v>2</v>
       </c>
       <c r="H114" s="1">
         <v>1</v>
@@ -4651,14 +5018,17 @@
       <c r="I114" s="1">
         <v>1</v>
       </c>
-      <c r="K114" s="1">
+      <c r="J114" s="1">
         <v>1</v>
       </c>
       <c r="L114" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>3</v>
       </c>
@@ -4677,8 +5047,8 @@
       <c r="F115" s="1">
         <v>3</v>
       </c>
-      <c r="G115" s="1">
-        <v>1</v>
+      <c r="G115" s="2">
+        <v>2</v>
       </c>
       <c r="H115" s="1">
         <v>1</v>
@@ -4695,8 +5065,11 @@
       <c r="L115" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>3</v>
       </c>
@@ -4715,8 +5088,8 @@
       <c r="F116" s="1">
         <v>1</v>
       </c>
-      <c r="G116" s="1">
-        <v>1</v>
+      <c r="G116" s="2">
+        <v>2</v>
       </c>
       <c r="H116" s="1">
         <v>1</v>
@@ -4733,8 +5106,11 @@
       <c r="L116" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>3</v>
       </c>
@@ -4753,8 +5129,8 @@
       <c r="F117" s="1">
         <v>1</v>
       </c>
-      <c r="G117" s="1">
-        <v>1</v>
+      <c r="G117" s="2">
+        <v>2</v>
       </c>
       <c r="H117" s="1">
         <v>1</v>
@@ -4769,10 +5145,13 @@
         <v>1</v>
       </c>
       <c r="L117" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M117" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>3</v>
       </c>
@@ -4791,8 +5170,8 @@
       <c r="F118" s="1">
         <v>1</v>
       </c>
-      <c r="G118" s="1">
-        <v>1</v>
+      <c r="G118" s="2">
+        <v>2</v>
       </c>
       <c r="H118" s="1">
         <v>1</v>
@@ -4801,16 +5180,19 @@
         <v>1</v>
       </c>
       <c r="J118" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K118" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L118" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>3</v>
       </c>
@@ -4829,8 +5211,8 @@
       <c r="F119" s="1">
         <v>3</v>
       </c>
-      <c r="G119" s="1">
-        <v>1</v>
+      <c r="G119" s="2">
+        <v>2</v>
       </c>
       <c r="H119" s="1">
         <v>1</v>
@@ -4847,8 +5229,11 @@
       <c r="L119" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>3</v>
       </c>
@@ -4867,8 +5252,8 @@
       <c r="F120" s="1">
         <v>1</v>
       </c>
-      <c r="G120" s="1">
-        <v>1</v>
+      <c r="G120" s="2">
+        <v>2</v>
       </c>
       <c r="H120" s="1">
         <v>1</v>
@@ -4883,10 +5268,13 @@
         <v>1</v>
       </c>
       <c r="L120" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>3</v>
       </c>
@@ -4905,26 +5293,29 @@
       <c r="F121" s="1">
         <v>3</v>
       </c>
-      <c r="G121" s="1">
-        <v>1</v>
+      <c r="G121" s="2">
+        <v>2</v>
       </c>
       <c r="H121" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121" s="1">
         <v>3</v>
       </c>
       <c r="J121" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K121" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L121" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M121" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -4943,26 +5334,29 @@
       <c r="F122" s="1">
         <v>1</v>
       </c>
-      <c r="G122" s="1">
-        <v>1</v>
+      <c r="G122" s="2">
+        <v>2</v>
       </c>
       <c r="H122" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I122" s="1">
         <v>3</v>
       </c>
       <c r="J122" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K122" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L122" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M122" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>3</v>
       </c>
@@ -4981,8 +5375,8 @@
       <c r="F123" s="1">
         <v>3</v>
       </c>
-      <c r="G123" s="1">
-        <v>1</v>
+      <c r="G123" s="2">
+        <v>2</v>
       </c>
       <c r="H123" s="1">
         <v>1</v>
@@ -4999,8 +5393,11 @@
       <c r="L123" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>3</v>
       </c>
@@ -5019,8 +5416,8 @@
       <c r="F124" s="1">
         <v>1</v>
       </c>
-      <c r="G124" s="1">
-        <v>3</v>
+      <c r="G124" s="2">
+        <v>2</v>
       </c>
       <c r="H124" s="1">
         <v>3</v>
@@ -5032,13 +5429,16 @@
         <v>3</v>
       </c>
       <c r="K124" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L124" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>3</v>
       </c>
@@ -5057,8 +5457,8 @@
       <c r="F125" s="1">
         <v>1</v>
       </c>
-      <c r="G125" s="1">
-        <v>1</v>
+      <c r="G125" s="2">
+        <v>2</v>
       </c>
       <c r="H125" s="1">
         <v>1</v>
@@ -5075,8 +5475,11 @@
       <c r="L125" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>3</v>
       </c>
@@ -5095,26 +5498,29 @@
       <c r="F126" s="1">
         <v>1</v>
       </c>
-      <c r="G126" s="1">
-        <v>1</v>
+      <c r="G126" s="2">
+        <v>2</v>
       </c>
       <c r="H126" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I126" s="1">
         <v>3</v>
       </c>
       <c r="J126" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K126" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L126" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M126" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>3</v>
       </c>
@@ -5133,8 +5539,8 @@
       <c r="F127" s="1">
         <v>3</v>
       </c>
-      <c r="G127" s="1">
-        <v>1</v>
+      <c r="G127" s="2">
+        <v>2</v>
       </c>
       <c r="H127" s="1">
         <v>1</v>
@@ -5149,10 +5555,13 @@
         <v>1</v>
       </c>
       <c r="L127" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M127" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -5171,8 +5580,8 @@
       <c r="F128" s="1">
         <v>1</v>
       </c>
-      <c r="G128" s="1">
-        <v>1</v>
+      <c r="G128" s="2">
+        <v>2</v>
       </c>
       <c r="H128" s="1">
         <v>1</v>
@@ -5181,16 +5590,19 @@
         <v>1</v>
       </c>
       <c r="J128" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K128" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L128" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>3</v>
       </c>
@@ -5209,8 +5621,8 @@
       <c r="F129" s="1">
         <v>1</v>
       </c>
-      <c r="G129" s="1">
-        <v>1</v>
+      <c r="G129" s="2">
+        <v>2</v>
       </c>
       <c r="H129" s="1">
         <v>1</v>
@@ -5219,16 +5631,19 @@
         <v>1</v>
       </c>
       <c r="J129" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K129" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L129" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>1</v>
       </c>
@@ -5247,26 +5662,29 @@
       <c r="F130" s="1">
         <v>3</v>
       </c>
-      <c r="G130" s="1">
-        <v>1</v>
+      <c r="G130" s="2">
+        <v>2</v>
       </c>
       <c r="H130" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130" s="1">
         <v>3</v>
       </c>
       <c r="J130" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K130" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L130" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>1</v>
       </c>
@@ -5285,8 +5703,8 @@
       <c r="F131" s="1">
         <v>3</v>
       </c>
-      <c r="G131" s="1">
-        <v>1</v>
+      <c r="G131" s="2">
+        <v>4</v>
       </c>
       <c r="H131" s="1">
         <v>1</v>
@@ -5303,8 +5721,11 @@
       <c r="L131" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>1</v>
       </c>
@@ -5323,11 +5744,11 @@
       <c r="F132" s="1">
         <v>1</v>
       </c>
-      <c r="G132" s="1">
-        <v>1</v>
+      <c r="G132" s="2">
+        <v>2</v>
       </c>
       <c r="H132" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132" s="1">
         <v>3</v>
@@ -5336,13 +5757,16 @@
         <v>3</v>
       </c>
       <c r="K132" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L132" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>1</v>
       </c>
@@ -5361,11 +5785,11 @@
       <c r="F133" s="1">
         <v>3</v>
       </c>
-      <c r="G133" s="1">
-        <v>3</v>
+      <c r="G133" s="2">
+        <v>1</v>
       </c>
       <c r="H133" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133" s="1">
         <v>1</v>
@@ -5374,13 +5798,16 @@
         <v>1</v>
       </c>
       <c r="K133" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>1</v>
       </c>
@@ -5399,11 +5826,11 @@
       <c r="F134" s="1">
         <v>3</v>
       </c>
-      <c r="G134" s="1">
-        <v>3</v>
+      <c r="G134" s="2">
+        <v>2</v>
       </c>
       <c r="H134" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I134" s="1">
         <v>1</v>
@@ -5417,8 +5844,11 @@
       <c r="L134" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -5437,26 +5867,29 @@
       <c r="F135" s="1">
         <v>3</v>
       </c>
-      <c r="G135" s="1">
-        <v>1</v>
+      <c r="G135" s="2">
+        <v>2</v>
       </c>
       <c r="H135" s="1">
         <v>1</v>
       </c>
       <c r="I135" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K135" s="1">
         <v>1</v>
       </c>
       <c r="L135" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>1</v>
       </c>
@@ -5475,8 +5908,8 @@
       <c r="F136" s="1">
         <v>1</v>
       </c>
-      <c r="G136" s="1">
-        <v>3</v>
+      <c r="G136" s="2">
+        <v>2</v>
       </c>
       <c r="H136" s="1">
         <v>3</v>
@@ -5485,16 +5918,19 @@
         <v>3</v>
       </c>
       <c r="J136" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K136" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L136" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>1</v>
       </c>
@@ -5513,7 +5949,7 @@
       <c r="F137" s="1">
         <v>1</v>
       </c>
-      <c r="G137" s="1">
+      <c r="G137" s="2">
         <v>1</v>
       </c>
       <c r="H137" s="1">
@@ -5523,16 +5959,19 @@
         <v>1</v>
       </c>
       <c r="J137" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K137" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L137" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>1</v>
       </c>
@@ -5551,17 +5990,17 @@
       <c r="F138" s="1">
         <v>3</v>
       </c>
-      <c r="G138" s="1">
-        <v>1</v>
+      <c r="G138" s="2">
+        <v>2</v>
       </c>
       <c r="H138" s="1">
         <v>1</v>
       </c>
       <c r="I138" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K138" s="1">
         <v>1</v>
@@ -5569,8 +6008,11 @@
       <c r="L138" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>1</v>
       </c>
@@ -5589,26 +6031,29 @@
       <c r="F139" s="1">
         <v>3</v>
       </c>
-      <c r="G139" s="1">
-        <v>1</v>
+      <c r="G139" s="2">
+        <v>2</v>
       </c>
       <c r="H139" s="1">
         <v>1</v>
       </c>
       <c r="I139" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J139" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K139" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L139" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -5627,26 +6072,29 @@
       <c r="F140" s="1">
         <v>3</v>
       </c>
-      <c r="G140" s="1">
-        <v>1</v>
+      <c r="G140" s="2">
+        <v>2</v>
       </c>
       <c r="H140" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140" s="1">
         <v>3</v>
       </c>
       <c r="J140" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K140" s="1">
         <v>1</v>
       </c>
       <c r="L140" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>1</v>
       </c>
@@ -5665,26 +6113,29 @@
       <c r="F141" s="1">
         <v>3</v>
       </c>
-      <c r="G141" s="1">
-        <v>1</v>
+      <c r="G141" s="2">
+        <v>2</v>
       </c>
       <c r="H141" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I141" s="1">
         <v>3</v>
       </c>
       <c r="J141" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K141" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L141" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M141" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>1</v>
       </c>
@@ -5703,8 +6154,8 @@
       <c r="F142" s="1">
         <v>3</v>
       </c>
-      <c r="G142" s="1">
-        <v>1</v>
+      <c r="G142" s="2">
+        <v>2</v>
       </c>
       <c r="H142" s="1">
         <v>1</v>
@@ -5721,8 +6172,11 @@
       <c r="L142" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -5741,8 +6195,8 @@
       <c r="F143" s="1">
         <v>3</v>
       </c>
-      <c r="G143" s="1">
-        <v>1</v>
+      <c r="G143" s="2">
+        <v>2</v>
       </c>
       <c r="H143" s="1">
         <v>1</v>
@@ -5759,8 +6213,11 @@
       <c r="L143" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>1</v>
       </c>
@@ -5779,17 +6236,17 @@
       <c r="F144" s="1">
         <v>3</v>
       </c>
-      <c r="G144" s="1">
-        <v>1</v>
+      <c r="G144" s="2">
+        <v>2</v>
       </c>
       <c r="H144" s="1">
         <v>1</v>
       </c>
       <c r="I144" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J144" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K144" s="1">
         <v>1</v>
@@ -5797,8 +6254,11 @@
       <c r="L144" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>1</v>
       </c>
@@ -5817,8 +6277,8 @@
       <c r="F145" s="1">
         <v>1</v>
       </c>
-      <c r="G145" s="1">
-        <v>1</v>
+      <c r="G145" s="2">
+        <v>2</v>
       </c>
       <c r="H145" s="1">
         <v>1</v>
@@ -5833,10 +6293,13 @@
         <v>1</v>
       </c>
       <c r="L145" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>1</v>
       </c>
@@ -5855,17 +6318,17 @@
       <c r="F146" s="1">
         <v>3</v>
       </c>
-      <c r="G146" s="1">
-        <v>1</v>
+      <c r="G146" s="2">
+        <v>2</v>
       </c>
       <c r="H146" s="1">
         <v>1</v>
       </c>
       <c r="I146" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J146" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K146" s="1">
         <v>1</v>
@@ -5873,8 +6336,11 @@
       <c r="L146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>1</v>
       </c>
@@ -5893,11 +6359,11 @@
       <c r="F147" s="1">
         <v>1</v>
       </c>
-      <c r="G147" s="1">
-        <v>3</v>
+      <c r="G147" s="2">
+        <v>1</v>
       </c>
       <c r="H147" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I147" s="1">
         <v>1</v>
@@ -5911,8 +6377,11 @@
       <c r="L147" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>1</v>
       </c>
@@ -5931,7 +6400,7 @@
       <c r="F148" s="1">
         <v>1</v>
       </c>
-      <c r="G148" s="1">
+      <c r="G148" s="2">
         <v>1</v>
       </c>
       <c r="H148" s="1">
@@ -5947,10 +6416,13 @@
         <v>1</v>
       </c>
       <c r="L148" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M148" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>1</v>
       </c>
@@ -5969,26 +6441,29 @@
       <c r="F149" s="1">
         <v>1</v>
       </c>
-      <c r="G149" s="1">
-        <v>3</v>
+      <c r="G149" s="2">
+        <v>2</v>
       </c>
       <c r="H149" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I149" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J149" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K149" s="1">
         <v>1</v>
       </c>
       <c r="L149" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M149" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>1</v>
       </c>
@@ -6007,26 +6482,29 @@
       <c r="F150" s="1">
         <v>1</v>
       </c>
-      <c r="G150" s="1">
-        <v>3</v>
+      <c r="G150" s="2">
+        <v>1</v>
       </c>
       <c r="H150" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I150" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J150" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K150" s="1">
         <v>1</v>
       </c>
       <c r="L150" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="M150" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>3</v>
       </c>
@@ -6045,8 +6523,8 @@
       <c r="F151" s="1">
         <v>3</v>
       </c>
-      <c r="G151" s="1">
-        <v>1</v>
+      <c r="G151" s="2">
+        <v>2</v>
       </c>
       <c r="H151" s="1">
         <v>1</v>
@@ -6063,8 +6541,312 @@
       <c r="L151" s="1">
         <v>1</v>
       </c>
+      <c r="M151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G168" s="2"/>
+    </row>
+    <row r="169" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G169" s="2"/>
+    </row>
+    <row r="170" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G170" s="2"/>
+    </row>
+    <row r="171" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G171" s="2"/>
+    </row>
+    <row r="172" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G172" s="2"/>
+    </row>
+    <row r="173" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G173" s="2"/>
+    </row>
+    <row r="174" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G174" s="2"/>
+    </row>
+    <row r="175" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G175" s="2"/>
+    </row>
+    <row r="176" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G176" s="2"/>
+    </row>
+    <row r="177" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G177" s="2"/>
+    </row>
+    <row r="178" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="2"/>
+    </row>
+    <row r="179" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="2"/>
+    </row>
+    <row r="180" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G180" s="2"/>
+    </row>
+    <row r="181" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G182" s="2"/>
+    </row>
+    <row r="183" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G184" s="2"/>
+    </row>
+    <row r="185" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G186" s="2"/>
+    </row>
+    <row r="187" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G188" s="2"/>
+    </row>
+    <row r="189" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G190" s="2"/>
+    </row>
+    <row r="191" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G191" s="2"/>
+    </row>
+    <row r="192" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G192" s="2"/>
+    </row>
+    <row r="193" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G193" s="2"/>
+    </row>
+    <row r="194" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G194" s="2"/>
+    </row>
+    <row r="195" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G195" s="2"/>
+    </row>
+    <row r="196" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G220" s="2"/>
+    </row>
+    <row r="221" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G222" s="2"/>
+    </row>
+    <row r="223" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="7:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G251" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>